--- a/data/trans_orig/IMC-Edad-trans_orig.xlsx
+++ b/data/trans_orig/IMC-Edad-trans_orig.xlsx
@@ -724,62 +724,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>23,35; 23,84</t>
+          <t>23,34; 23,81</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>23,44; 24,09</t>
+          <t>23,43; 24,07</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>22,98; 23,7</t>
+          <t>23,0; 23,76</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>23,26; 24,71</t>
+          <t>23,23; 24,71</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>21,83; 22,46</t>
+          <t>21,87; 22,44</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>22,33; 23,02</t>
+          <t>22,32; 23,03</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>22,27; 23,07</t>
+          <t>22,3; 23,06</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>22,45; 23,71</t>
+          <t>22,5; 23,7</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>22,69; 23,09</t>
+          <t>22,69; 23,07</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>22,99; 23,48</t>
+          <t>22,98; 23,48</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>22,74; 23,27</t>
+          <t>22,76; 23,28</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>23,09; 24,11</t>
+          <t>23,07; 24,09</t>
         </is>
       </c>
     </row>
@@ -864,62 +864,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>24,85; 25,34</t>
+          <t>24,86; 25,34</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>25,39; 25,96</t>
+          <t>25,43; 25,98</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>24,83; 25,47</t>
+          <t>24,84; 25,46</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>25,3; 26,31</t>
+          <t>25,28; 26,25</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>23,32; 23,97</t>
+          <t>23,3; 24,0</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>24,22; 25,01</t>
+          <t>24,23; 25,03</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>24,15; 24,87</t>
+          <t>24,12; 24,86</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>24,38; 25,28</t>
+          <t>24,36; 25,29</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>24,2; 24,62</t>
+          <t>24,21; 24,62</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>24,95; 25,42</t>
+          <t>24,96; 25,44</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>24,6; 25,08</t>
+          <t>24,61; 25,1</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>24,95; 25,64</t>
+          <t>24,92; 25,57</t>
         </is>
       </c>
     </row>
@@ -1004,7 +1004,7 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>26,06; 26,67</t>
+          <t>26,08; 26,61</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
@@ -1014,52 +1014,52 @@
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>26,12; 26,75</t>
+          <t>26,1; 26,72</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>26,14; 26,9</t>
+          <t>26,14; 26,91</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>24,36; 25,06</t>
+          <t>24,37; 25,05</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>25,33; 26,08</t>
+          <t>25,32; 26,09</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>24,84; 25,6</t>
+          <t>24,84; 25,56</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>24,79; 25,47</t>
+          <t>24,8; 25,44</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>25,27; 25,72</t>
+          <t>25,27; 25,73</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>26,14; 26,63</t>
+          <t>26,15; 26,64</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>25,57; 26,07</t>
+          <t>25,57; 26,05</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>25,55; 26,07</t>
+          <t>25,54; 26,04</t>
         </is>
       </c>
     </row>
@@ -1144,62 +1144,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>26,52; 27,15</t>
+          <t>26,49; 27,16</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>27,17; 27,8</t>
+          <t>27,16; 27,79</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>27,05; 27,76</t>
+          <t>27,06; 27,74</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>27,27; 29,23</t>
+          <t>27,28; 29,37</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>25,59; 26,33</t>
+          <t>25,59; 26,41</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>26,2; 27,02</t>
+          <t>26,22; 27,02</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>25,86; 26,69</t>
+          <t>25,87; 26,72</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>25,77; 26,33</t>
+          <t>25,78; 26,37</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>26,12; 26,65</t>
+          <t>26,16; 26,67</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>26,77; 27,27</t>
+          <t>26,79; 27,28</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>26,56; 27,11</t>
+          <t>26,58; 27,14</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>26,64; 28,44</t>
+          <t>26,63; 28,39</t>
         </is>
       </c>
     </row>
@@ -1284,62 +1284,62 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>27,35; 28,1</t>
+          <t>27,34; 28,11</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>27,3; 28,11</t>
+          <t>27,29; 28,14</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>27,52; 28,37</t>
+          <t>27,48; 28,35</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>27,52; 28,26</t>
+          <t>27,52; 28,21</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>26,86; 27,68</t>
+          <t>26,88; 27,7</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>27,78; 28,81</t>
+          <t>27,76; 28,78</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>27,29; 28,27</t>
+          <t>27,31; 28,25</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>26,5; 27,11</t>
+          <t>26,54; 27,14</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>27,2; 27,77</t>
+          <t>27,19; 27,79</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>27,67; 28,32</t>
+          <t>27,66; 28,29</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>27,55; 28,18</t>
+          <t>27,51; 28,18</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>27,09; 27,55</t>
+          <t>27,09; 27,56</t>
         </is>
       </c>
     </row>
@@ -1424,62 +1424,62 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>26,79; 27,58</t>
+          <t>26,86; 27,66</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>27,8; 28,7</t>
+          <t>27,82; 28,66</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>27,8; 28,73</t>
+          <t>27,78; 28,69</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>27,51; 28,21</t>
+          <t>27,48; 28,23</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>28,05; 29,01</t>
+          <t>28,08; 29,01</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>28,73; 29,82</t>
+          <t>28,7; 29,82</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>27,48; 28,49</t>
+          <t>27,47; 28,52</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>27,43; 32,24</t>
+          <t>27,38; 32,48</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>27,64; 28,26</t>
+          <t>27,64; 28,27</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>28,44; 29,17</t>
+          <t>28,39; 29,11</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>27,76; 28,47</t>
+          <t>27,78; 28,48</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>27,56; 31,49</t>
+          <t>27,57; 31,52</t>
         </is>
       </c>
     </row>
@@ -1564,7 +1564,7 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>26,83; 27,77</t>
+          <t>26,86; 27,79</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
@@ -1574,52 +1574,52 @@
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>27,13; 28,05</t>
+          <t>27,13; 28,06</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>26,61; 27,29</t>
+          <t>26,62; 27,3</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>27,87; 28,87</t>
+          <t>27,9; 28,88</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>28,24; 29,29</t>
+          <t>28,19; 29,27</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>27,93; 29,18</t>
+          <t>27,9; 29,18</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>27,05; 27,6</t>
+          <t>27,06; 27,65</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>27,61; 28,31</t>
+          <t>27,56; 28,29</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>27,96; 28,71</t>
+          <t>27,96; 28,68</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>27,72; 28,56</t>
+          <t>27,73; 28,56</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">
         <is>
-          <t>26,96; 27,4</t>
+          <t>26,93; 27,38</t>
         </is>
       </c>
     </row>
@@ -1704,42 +1704,42 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>25,9; 26,15</t>
+          <t>25,89; 26,14</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>26,53; 26,8</t>
+          <t>26,51; 26,8</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>26,32; 26,63</t>
+          <t>26,32; 26,62</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>26,63; 27,82</t>
+          <t>26,61; 27,72</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>25,22; 25,56</t>
+          <t>25,22; 25,54</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>26,07; 26,45</t>
+          <t>26,1; 26,45</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>25,82; 26,15</t>
+          <t>25,81; 26,17</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>25,83; 27,91</t>
+          <t>25,82; 27,81</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
@@ -1749,17 +1749,17 @@
       </c>
       <c r="L19" s="2" t="inlineStr">
         <is>
-          <t>26,33; 26,58</t>
+          <t>26,34; 26,57</t>
         </is>
       </c>
       <c r="M19" s="2" t="inlineStr">
         <is>
-          <t>26,11; 26,34</t>
+          <t>26,09; 26,34</t>
         </is>
       </c>
       <c r="N19" s="2" t="inlineStr">
         <is>
-          <t>26,27; 27,43</t>
+          <t>26,28; 27,48</t>
         </is>
       </c>
     </row>
